--- a/E-art Sudoku Production Document.xlsx
+++ b/E-art Sudoku Production Document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-artSudoku\E-art-Sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +363,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -368,11 +380,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,10 +403,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -708,7 +723,7 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +876,7 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="G11" s="3" t="s">
         <v>26</v>
       </c>

--- a/E-art Sudoku Production Document.xlsx
+++ b/E-art Sudoku Production Document.xlsx
@@ -159,30 +159,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Coder détection des chiffres par colonnes et lignes :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Tableau de "contenance" par ligne et colonne</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>UI en jeu:</t>
     </r>
     <r>
@@ -316,6 +292,30 @@
   </si>
   <si>
     <t>1h45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coder détection des chiffres par colonnes et lignes :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Savoir si le joueur a bien mit le résultat attendu dans la case</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FFB01-6617-4B66-BBD3-6D61DB0958A4}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -785,10 +785,10 @@
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -809,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -823,20 +823,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -854,13 +854,13 @@
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -874,17 +874,17 @@
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7"/>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -895,14 +895,15 @@
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -913,14 +914,14 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -931,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="3" t="s">
